--- a/3.results/model_selection/mouette_melanocephale_HR_2_covariates_blocks.xlsx
+++ b/3.results/model_selection/mouette_melanocephale_HR_2_covariates_blocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E719BCDE-39D6-426C-90D5-F482E3635195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A98358-E539-4FC1-9C3B-F5414A60B55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="static_covs" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -328,18 +328,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -368,18 +356,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1089,14 +1071,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1167,11 +1146,11 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2">
-        <v>1.143</v>
+      <c r="B2" s="1">
+        <v>1.048</v>
       </c>
       <c r="C2" s="1">
-        <v>58.7</v>
+        <v>50.6</v>
       </c>
       <c r="D2" s="1">
         <v>0.68</v>
@@ -1180,16 +1159,16 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
         <v>0.31</v>
       </c>
       <c r="I2" s="1">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
         <v>620</v>
@@ -1198,22 +1177,22 @@
         <v>147</v>
       </c>
       <c r="L2" s="1">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M2" s="1">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="N2" s="1">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O2" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P2" s="1">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q2" s="1">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1221,29 +1200,29 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0109999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="C3" s="1">
-        <v>157.5</v>
+        <v>185.5</v>
       </c>
       <c r="D3" s="1">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="E3" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="G3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="I3" s="1">
         <v>0.51</v>
@@ -1261,19 +1240,19 @@
         <v>1178</v>
       </c>
       <c r="N3" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O3" s="1">
         <v>147</v>
       </c>
       <c r="P3" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q3" s="1">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="R3" s="1">
-        <v>-1.62</v>
+        <v>-1.58</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1">
@@ -1286,13 +1265,13 @@
         <v>23</v>
       </c>
       <c r="B4" s="1">
-        <v>1.032</v>
+        <v>1.135</v>
       </c>
       <c r="C4" s="1">
-        <v>138</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E4" s="1">
         <v>0.49</v>
@@ -1335,11 +1314,11 @@
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1">
-        <v>-1.02</v>
+        <v>-1.05</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1347,28 +1326,28 @@
         <v>24</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0609999999999999</v>
+        <v>1.117</v>
       </c>
       <c r="C5" s="1">
-        <v>153.4</v>
+        <v>144.4</v>
       </c>
       <c r="D5" s="1">
         <v>0.63</v>
       </c>
       <c r="E5" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F5" s="1">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="G5" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H5" s="1">
         <v>0.43</v>
       </c>
       <c r="I5" s="1">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="J5" s="1">
         <v>629</v>
@@ -1383,7 +1362,7 @@
         <v>1180</v>
       </c>
       <c r="N5" s="1">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O5" s="1">
         <v>147</v>
@@ -1392,19 +1371,19 @@
         <v>404</v>
       </c>
       <c r="Q5" s="1">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="R5" s="1">
-        <v>-1.65</v>
+        <v>-1.61</v>
       </c>
       <c r="S5" s="1">
-        <v>-0.1</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="T5" s="1">
         <v>0.45</v>
       </c>
       <c r="U5" s="1">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1433,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="15">
-      <formula>J2&lt;625</formula>
+      <formula>J2&lt;623</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -1467,7 +1446,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="13">
-      <formula>K2&lt;152</formula>
+      <formula>K2&lt;150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -1480,7 +1459,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="11">
-      <formula>L2&lt;409</formula>
+      <formula>L2&lt;407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -1493,7 +1472,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="9">
-      <formula>M2&lt;1183</formula>
+      <formula>M2&lt;1181</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -1506,7 +1485,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="7">
-      <formula>N2&lt;621</formula>
+      <formula>N2&lt;620</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -1519,7 +1498,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="5">
-      <formula>O2&lt;152</formula>
+      <formula>O2&lt;150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P5">
@@ -1532,7 +1511,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="3">
-      <formula>P2&lt;408</formula>
+      <formula>P2&lt;407</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -1549,7 +1528,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1562,9 +1541,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1660,10 +1636,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="1">
-        <v>1.143</v>
+        <v>1.048</v>
       </c>
       <c r="C2" s="1">
-        <v>58.7</v>
+        <v>50.6</v>
       </c>
       <c r="D2" s="1">
         <v>0.68</v>
@@ -1672,16 +1648,16 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
         <v>0.31</v>
       </c>
       <c r="I2" s="1">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
         <v>620</v>
@@ -1690,22 +1666,22 @@
         <v>147</v>
       </c>
       <c r="L2" s="1">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M2" s="1">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="N2" s="1">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O2" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P2" s="1">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q2" s="1">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1725,16 +1701,16 @@
         <v>37</v>
       </c>
       <c r="B3" s="1">
-        <v>1.163</v>
+        <v>1.022</v>
       </c>
       <c r="C3" s="1">
-        <v>163.30000000000001</v>
+        <v>175.9</v>
       </c>
       <c r="D3" s="1">
         <v>0.63</v>
       </c>
       <c r="E3" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1">
         <v>0.41</v>
@@ -1749,25 +1725,25 @@
         <v>0.5</v>
       </c>
       <c r="J3" s="1">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K3" s="1">
         <v>147</v>
       </c>
       <c r="L3" s="1">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M3" s="1">
         <v>1196</v>
       </c>
       <c r="N3" s="1">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O3" s="1">
         <v>146</v>
       </c>
       <c r="P3" s="1">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q3" s="1">
         <v>1193</v>
@@ -1777,7 +1753,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1">
-        <v>-1.54</v>
+        <v>-1.53</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -1785,7 +1761,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AC3" s="1"/>
     </row>
@@ -1794,25 +1770,25 @@
         <v>38</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0309999999999999</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>45.6</v>
+        <v>44.8</v>
       </c>
       <c r="D4" s="1">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E4" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="G4" s="1">
         <v>0.51</v>
       </c>
       <c r="H4" s="1">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I4" s="1">
         <v>0.5</v>
@@ -1830,10 +1806,10 @@
         <v>1207</v>
       </c>
       <c r="N4" s="1">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O4" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P4" s="1">
         <v>442</v>
@@ -1843,7 +1819,7 @@
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1">
-        <v>-0.16</v>
+        <v>-0.2</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -1851,7 +1827,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -1863,28 +1839,28 @@
         <v>39</v>
       </c>
       <c r="B5" s="1">
-        <v>1.119</v>
+        <v>1.1539999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>77.599999999999994</v>
+        <v>83.9</v>
       </c>
       <c r="D5" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="G5" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="1">
         <v>0.33</v>
       </c>
       <c r="I5" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="J5" s="1">
         <v>623</v>
@@ -1899,22 +1875,22 @@
         <v>1206</v>
       </c>
       <c r="N5" s="1">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O5" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P5" s="1">
         <v>439</v>
       </c>
       <c r="Q5" s="1">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1">
-        <v>-0.43</v>
+        <v>-0.45</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1932,31 +1908,31 @@
         <v>40</v>
       </c>
       <c r="B6" s="1">
-        <v>1.073</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>80.3</v>
+        <v>55.3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.51</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.5</v>
-      </c>
       <c r="H6" s="1">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="I6" s="1">
         <v>0.5</v>
       </c>
       <c r="J6" s="1">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K6" s="1">
         <v>147</v>
@@ -1965,22 +1941,22 @@
         <v>433</v>
       </c>
       <c r="M6" s="1">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="N6" s="1">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O6" s="1">
         <v>147</v>
       </c>
       <c r="P6" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q6" s="1">
         <v>1207</v>
       </c>
       <c r="R6" s="1">
-        <v>-0.52</v>
+        <v>-0.54</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1988,7 +1964,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -2001,10 +1977,10 @@
         <v>41</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0549999999999999</v>
+        <v>1.1459999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>92.1</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="D7" s="1">
         <v>0.63</v>
@@ -2016,16 +1992,16 @@
         <v>0.41</v>
       </c>
       <c r="G7" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="1">
         <v>0.45</v>
       </c>
       <c r="I7" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="1">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K7" s="1">
         <v>146</v>
@@ -2034,7 +2010,7 @@
         <v>403</v>
       </c>
       <c r="M7" s="1">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="N7" s="1">
         <v>638</v>
@@ -2043,29 +2019,29 @@
         <v>147</v>
       </c>
       <c r="P7" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q7" s="1">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1">
-        <v>-2.38</v>
+        <v>-2.25</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="AC7" s="1"/>
     </row>
@@ -2074,28 +2050,28 @@
         <v>42</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0509999999999999</v>
+        <v>1.014</v>
       </c>
       <c r="C8" s="1">
-        <v>120.6</v>
+        <v>126.5</v>
       </c>
       <c r="D8" s="1">
         <v>0.63</v>
       </c>
       <c r="E8" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="F8" s="1">
         <v>0.41</v>
       </c>
       <c r="G8" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="1">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="I8" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J8" s="1">
         <v>642</v>
@@ -2125,20 +2101,20 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="V8" s="1">
-        <v>-1.77</v>
+        <v>-1.72</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="AB8" s="1">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="AC8" s="1"/>
     </row>
@@ -2147,10 +2123,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="1">
-        <v>1.3740000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>69</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="D9" s="1">
         <v>0.67</v>
@@ -2159,16 +2135,16 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="1">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G9" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="1">
         <v>0.33</v>
       </c>
       <c r="I9" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J9" s="1">
         <v>621</v>
@@ -2186,53 +2162,53 @@
         <v>618</v>
       </c>
       <c r="O9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P9" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q9" s="1">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1">
-        <v>-0.84</v>
+        <v>-0.75</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="1">
-        <v>1.1910000000000001</v>
+        <v>1.206</v>
       </c>
       <c r="C10" s="1">
-        <v>145.80000000000001</v>
+        <v>176.9</v>
       </c>
       <c r="D10" s="1">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="E10" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F10" s="1">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="G10" s="1">
         <v>0.52</v>
@@ -2262,29 +2238,29 @@
         <v>147</v>
       </c>
       <c r="P10" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="1">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="R10" s="1">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1">
-        <v>-3.45</v>
+        <v>-3.41</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="AC10" s="1"/>
     </row>
@@ -2293,37 +2269,37 @@
         <v>45</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0920000000000001</v>
+        <v>2.0510000000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>62.4</v>
+        <v>48.6</v>
       </c>
       <c r="D11" s="1">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="E11" s="1">
         <v>0.5</v>
       </c>
       <c r="F11" s="1">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="G11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="I11" s="1">
         <v>0.51</v>
       </c>
-      <c r="H11" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.49</v>
-      </c>
       <c r="J11" s="1">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K11" s="1">
         <v>147</v>
       </c>
       <c r="L11" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M11" s="1">
         <v>1208</v>
@@ -2335,26 +2311,26 @@
         <v>147</v>
       </c>
       <c r="P11" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q11" s="1">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="R11" s="1">
-        <v>-0.62</v>
+        <v>-0.6</v>
       </c>
       <c r="S11" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -2366,55 +2342,55 @@
         <v>46</v>
       </c>
       <c r="B12" s="1">
-        <v>1.1539999999999999</v>
+        <v>1.054</v>
       </c>
       <c r="C12" s="1">
-        <v>106.8</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="D12" s="1">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E12" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="1">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G12" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H12" s="1">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="I12" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J12" s="1">
         <v>627</v>
       </c>
       <c r="K12" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L12" s="1">
         <v>432</v>
       </c>
       <c r="M12" s="1">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="N12" s="1">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O12" s="1">
         <v>149</v>
       </c>
       <c r="P12" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q12" s="1">
         <v>1210</v>
       </c>
       <c r="R12" s="1">
-        <v>-0.24</v>
+        <v>-0.3</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2424,12 +2400,12 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -2439,22 +2415,22 @@
         <v>47</v>
       </c>
       <c r="B13" s="1">
-        <v>1.0249999999999999</v>
+        <v>1.2310000000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>112.2</v>
+        <v>111.1</v>
       </c>
       <c r="D13" s="1">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="E13" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="1">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="G13" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H13" s="1">
         <v>0.45</v>
@@ -2475,10 +2451,10 @@
         <v>1188</v>
       </c>
       <c r="N13" s="1">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O13" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P13" s="1">
         <v>406</v>
@@ -2488,11 +2464,11 @@
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1">
-        <v>-0.84</v>
+        <v>-0.81</v>
       </c>
       <c r="V13" s="1">
         <v>-2.38</v>
@@ -2500,32 +2476,32 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="AB13" s="1">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="1">
-        <v>1.137</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>141.9</v>
+        <v>99.3</v>
       </c>
       <c r="D14" s="1">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="E14" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F14" s="1">
         <v>0.4</v>
@@ -2534,7 +2510,7 @@
         <v>0.51</v>
       </c>
       <c r="H14" s="1">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="I14" s="1">
         <v>0.5</v>
@@ -2555,66 +2531,66 @@
         <v>631</v>
       </c>
       <c r="O14" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P14" s="1">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="1">
         <v>1178</v>
       </c>
       <c r="R14" s="1">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="S14" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1">
-        <v>-3.43</v>
+        <v>-3.38</v>
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="1">
-        <v>1.0149999999999999</v>
+        <v>1.028</v>
       </c>
       <c r="C15" s="1">
-        <v>134.9</v>
+        <v>148.1</v>
       </c>
       <c r="D15" s="1">
         <v>0.63</v>
       </c>
       <c r="E15" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F15" s="1">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="G15" s="1">
         <v>0.51</v>
       </c>
       <c r="H15" s="1">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="I15" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J15" s="1">
         <v>635</v>
@@ -2635,33 +2611,33 @@
         <v>147</v>
       </c>
       <c r="P15" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q15" s="1">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="R15" s="1">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="V15" s="1">
-        <v>-3.26</v>
+        <v>-3.39</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="AC15" s="1"/>
     </row>
@@ -2670,25 +2646,25 @@
         <v>50</v>
       </c>
       <c r="B16" s="1">
-        <v>1.141</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>62.3</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E16" s="1">
         <v>0.5</v>
       </c>
       <c r="F16" s="1">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="G16" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="H16" s="1">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I16" s="1">
         <v>0.49</v>
@@ -2697,16 +2673,16 @@
         <v>627</v>
       </c>
       <c r="K16" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L16" s="1">
         <v>429</v>
       </c>
       <c r="M16" s="1">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="N16" s="1">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O16" s="1">
         <v>150</v>
@@ -2715,42 +2691,42 @@
         <v>434</v>
       </c>
       <c r="Q16" s="1">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="R16" s="1">
-        <v>-0.76</v>
+        <v>-0.66</v>
       </c>
       <c r="S16" s="1">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1">
-        <v>-0.88</v>
+        <v>-0.76</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="1">
-        <v>1.081</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>77.3</v>
+        <v>111.1</v>
       </c>
       <c r="D17" s="1">
         <v>0.62</v>
@@ -2759,19 +2735,19 @@
         <v>0.5</v>
       </c>
       <c r="F17" s="1">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="G17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="I17" s="1">
         <v>0.51</v>
       </c>
-      <c r="H17" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.5</v>
-      </c>
       <c r="J17" s="1">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K17" s="1">
         <v>148</v>
@@ -2780,16 +2756,16 @@
         <v>399</v>
       </c>
       <c r="M17" s="1">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="N17" s="1">
         <v>628</v>
       </c>
       <c r="O17" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P17" s="1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="1">
         <v>1178</v>
@@ -2798,28 +2774,28 @@
         <v>1.83</v>
       </c>
       <c r="S17" s="1">
-        <v>0.63</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1">
-        <v>-0.7</v>
+        <v>-0.65</v>
       </c>
       <c r="V17" s="1">
-        <v>-3.5</v>
+        <v>-3.41</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1">
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="AB17" s="1">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="AC17" s="1"/>
     </row>
@@ -2828,28 +2804,28 @@
         <v>52</v>
       </c>
       <c r="B18" s="1">
-        <v>1.0609999999999999</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>105.5</v>
+        <v>114.5</v>
       </c>
       <c r="D18" s="1">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="E18" s="1">
         <v>0.5</v>
       </c>
       <c r="F18" s="1">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="G18" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H18" s="1">
         <v>0.37</v>
       </c>
       <c r="I18" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J18" s="1">
         <v>632</v>
@@ -2867,18 +2843,18 @@
         <v>628</v>
       </c>
       <c r="O18" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P18" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q18" s="1">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1">
-        <v>-0.69</v>
+        <v>-0.67</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -2886,7 +2862,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -2897,13 +2873,13 @@
         <v>53</v>
       </c>
       <c r="B19" s="1">
-        <v>1.1659999999999999</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>130.6</v>
+        <v>120.5</v>
       </c>
       <c r="D19" s="1">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="E19" s="1">
         <v>0.5</v>
@@ -2912,25 +2888,25 @@
         <v>0.42</v>
       </c>
       <c r="G19" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H19" s="1">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="I19" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J19" s="1">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K19" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L19" s="1">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M19" s="1">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="N19" s="1">
         <v>630</v>
@@ -2939,10 +2915,10 @@
         <v>147</v>
       </c>
       <c r="P19" s="1">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="1">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -2950,7 +2926,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1">
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -2958,7 +2934,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -2966,10 +2942,10 @@
         <v>54</v>
       </c>
       <c r="B20" s="1">
-        <v>1.1100000000000001</v>
+        <v>1.258</v>
       </c>
       <c r="C20" s="1">
-        <v>110</v>
+        <v>108.9</v>
       </c>
       <c r="D20" s="1">
         <v>0.63</v>
@@ -2978,16 +2954,16 @@
         <v>0.5</v>
       </c>
       <c r="F20" s="1">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="G20" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="H20" s="1">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="I20" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J20" s="1">
         <v>644</v>
@@ -2996,10 +2972,10 @@
         <v>146</v>
       </c>
       <c r="L20" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M20" s="1">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="N20" s="1">
         <v>640</v>
@@ -3008,30 +2984,30 @@
         <v>146</v>
       </c>
       <c r="P20" s="1">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q20" s="1">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1">
-        <v>-0.97</v>
+        <v>-0.93</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1">
-        <v>1.22</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -3081,7 +3057,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="15">
-      <formula>J2&lt;625</formula>
+      <formula>J2&lt;623</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K20">
@@ -3094,7 +3070,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="13">
-      <formula>K2&lt;151</formula>
+      <formula>K2&lt;149</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L20">
@@ -3107,7 +3083,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="11">
-      <formula>L2&lt;404</formula>
+      <formula>L2&lt;402</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M20">
@@ -3120,7 +3096,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="9">
-      <formula>M2&lt;1186</formula>
+      <formula>M2&lt;1183</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N20">
@@ -3133,7 +3109,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="7">
-      <formula>N2&lt;621</formula>
+      <formula>N2&lt;620</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O20">
@@ -3146,7 +3122,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="5">
-      <formula>O2&lt;151</formula>
+      <formula>O2&lt;149</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P20">
@@ -3159,7 +3135,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="3">
-      <formula>P2&lt;404</formula>
+      <formula>P2&lt;403</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q20">
@@ -3172,7 +3148,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="1">
-      <formula>Q2&lt;1181</formula>
+      <formula>Q2&lt;1180</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3184,8 +3160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3278,10 +3254,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="1">
-        <v>1.143</v>
+        <v>1.048</v>
       </c>
       <c r="C2" s="1">
-        <v>58.7</v>
+        <v>50.6</v>
       </c>
       <c r="D2" s="1">
         <v>0.68</v>
@@ -3290,16 +3266,16 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="G2" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H2" s="1">
         <v>0.31</v>
       </c>
       <c r="I2" s="1">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="J2" s="1">
         <v>620</v>
@@ -3308,22 +3284,22 @@
         <v>147</v>
       </c>
       <c r="L2" s="1">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M2" s="1">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="N2" s="1">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O2" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P2" s="1">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q2" s="1">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -3341,16 +3317,16 @@
         <v>65</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0289999999999999</v>
+        <v>1.073</v>
       </c>
       <c r="C3" s="1">
-        <v>127.2</v>
+        <v>121.7</v>
       </c>
       <c r="D3" s="1">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="1">
         <v>0.42</v>
@@ -3362,7 +3338,7 @@
         <v>0.41</v>
       </c>
       <c r="I3" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J3" s="1">
         <v>623</v>
@@ -3371,10 +3347,10 @@
         <v>148</v>
       </c>
       <c r="L3" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M3" s="1">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="N3" s="1">
         <v>619</v>
@@ -3389,14 +3365,14 @@
         <v>1189</v>
       </c>
       <c r="R3" s="1">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -3408,25 +3384,25 @@
         <v>66</v>
       </c>
       <c r="B4" s="1">
-        <v>1.01</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>109.3</v>
+        <v>40.6</v>
       </c>
       <c r="D4" s="1">
         <v>0.67</v>
       </c>
       <c r="E4" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.51</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.5</v>
-      </c>
       <c r="H4" s="1">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I4" s="1">
         <v>0.51</v>
@@ -3435,37 +3411,37 @@
         <v>617</v>
       </c>
       <c r="K4" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L4" s="1">
         <v>440</v>
       </c>
       <c r="M4" s="1">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="N4" s="1">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O4" s="1">
         <v>148</v>
       </c>
       <c r="P4" s="1">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q4" s="1">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -3475,25 +3451,25 @@
         <v>67</v>
       </c>
       <c r="B5" s="1">
-        <v>1.1259999999999999</v>
+        <v>1.1890000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>118.2</v>
+        <v>132.5</v>
       </c>
       <c r="D5" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="G5" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H5" s="1">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="I5" s="1">
         <v>0.5</v>
@@ -3502,36 +3478,36 @@
         <v>618</v>
       </c>
       <c r="K5" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L5" s="1">
         <v>435</v>
       </c>
       <c r="M5" s="1">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="N5" s="1">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O5" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P5" s="1">
         <v>435</v>
       </c>
       <c r="Q5" s="1">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -3542,19 +3518,19 @@
         <v>68</v>
       </c>
       <c r="B6" s="1">
-        <v>1.2090000000000001</v>
+        <v>1.103</v>
       </c>
       <c r="C6" s="1">
-        <v>54.5</v>
+        <v>52.4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E6" s="1">
         <v>0.5</v>
       </c>
       <c r="F6" s="1">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="G6" s="1">
         <v>0.5</v>
@@ -3563,7 +3539,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="1">
         <v>623</v>
@@ -3581,38 +3557,38 @@
         <v>622</v>
       </c>
       <c r="O6" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P6" s="1">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q6" s="1">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1">
-        <v>0.37</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.68</v>
       </c>
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="1">
-        <v>1.04</v>
+        <v>1.077</v>
       </c>
       <c r="C7" s="1">
-        <v>45</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="D7" s="1">
         <v>0.67</v>
@@ -3621,13 +3597,13 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="1">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="G7" s="1">
         <v>0.51</v>
       </c>
       <c r="H7" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="I7" s="1">
         <v>0.5</v>
@@ -3648,56 +3624,56 @@
         <v>618</v>
       </c>
       <c r="O7" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P7" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q7" s="1">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="1">
-        <v>1.1080000000000001</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>125.6</v>
+        <v>137.5</v>
       </c>
       <c r="D8" s="1">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E8" s="1">
         <v>0.5</v>
       </c>
       <c r="F8" s="1">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="G8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="I8" s="1">
         <v>0.51</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.5</v>
       </c>
       <c r="J8" s="1">
         <v>623</v>
@@ -3706,38 +3682,38 @@
         <v>149</v>
       </c>
       <c r="L8" s="1">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M8" s="1">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="N8" s="1">
         <v>619</v>
       </c>
       <c r="O8" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P8" s="1">
         <v>414</v>
       </c>
       <c r="Q8" s="1">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="R8" s="1">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1">
-        <v>-0.93</v>
+        <v>-0.94</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -3747,10 +3723,10 @@
         <v>71</v>
       </c>
       <c r="B9" s="1">
-        <v>1.111</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>109.9</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1">
         <v>0.65</v>
@@ -3759,13 +3735,13 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="1">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="G9" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="1">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I9" s="1">
         <v>0.51</v>
@@ -3783,28 +3759,28 @@
         <v>1191</v>
       </c>
       <c r="N9" s="1">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O9" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P9" s="1">
         <v>422</v>
       </c>
       <c r="Q9" s="1">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="R9" s="1">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S9" s="1">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="X9" s="1">
         <v>0.3</v>
@@ -3818,25 +3794,25 @@
         <v>72</v>
       </c>
       <c r="B10" s="1">
-        <v>1.073</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>125.9</v>
+        <v>112.9</v>
       </c>
       <c r="D10" s="1">
         <v>0.67</v>
       </c>
       <c r="E10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.51</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.5</v>
-      </c>
       <c r="H10" s="1">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="I10" s="1">
         <v>0.5</v>
@@ -3848,10 +3824,10 @@
         <v>147</v>
       </c>
       <c r="L10" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M10" s="1">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="N10" s="1">
         <v>615</v>
@@ -3867,19 +3843,19 @@
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="T10" s="1">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -3889,43 +3865,43 @@
         <v>73</v>
       </c>
       <c r="B11" s="1">
-        <v>1.127</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>151.30000000000001</v>
+        <v>134</v>
       </c>
       <c r="D11" s="1">
         <v>0.65</v>
       </c>
       <c r="E11" s="1">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="F11" s="1">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="G11" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H11" s="1">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="I11" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="J11" s="1">
         <v>627</v>
       </c>
       <c r="K11" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L11" s="1">
         <v>417</v>
       </c>
       <c r="M11" s="1">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="N11" s="1">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O11" s="1">
         <v>148</v>
@@ -3934,15 +3910,15 @@
         <v>419</v>
       </c>
       <c r="Q11" s="1">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="R11" s="1">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1">
@@ -3951,7 +3927,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AA11" s="1"/>
     </row>
@@ -3960,16 +3936,16 @@
         <v>74</v>
       </c>
       <c r="B12" s="1">
-        <v>1.0089999999999999</v>
+        <v>1.7350000000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>103.4</v>
+        <v>43.9</v>
       </c>
       <c r="D12" s="1">
         <v>0.67</v>
       </c>
       <c r="E12" s="1">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="F12" s="1">
         <v>0.44</v>
@@ -3978,7 +3954,7 @@
         <v>0.51</v>
       </c>
       <c r="H12" s="1">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="I12" s="1">
         <v>0.51</v>
@@ -3990,22 +3966,22 @@
         <v>147</v>
       </c>
       <c r="L12" s="1">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M12" s="1">
+        <v>1204</v>
+      </c>
+      <c r="N12" s="1">
+        <v>620</v>
+      </c>
+      <c r="O12" s="1">
+        <v>147</v>
+      </c>
+      <c r="P12" s="1">
+        <v>438</v>
+      </c>
+      <c r="Q12" s="1">
         <v>1205</v>
-      </c>
-      <c r="N12" s="1">
-        <v>621</v>
-      </c>
-      <c r="O12" s="1">
-        <v>148</v>
-      </c>
-      <c r="P12" s="1">
-        <v>437</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1206</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -4013,16 +3989,16 @@
         <v>0.43</v>
       </c>
       <c r="U12" s="1">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="Z12" s="1">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="AA12" s="1"/>
     </row>
@@ -4031,28 +4007,28 @@
         <v>75</v>
       </c>
       <c r="B13" s="1">
-        <v>1.236</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>111.6</v>
+        <v>88.5</v>
       </c>
       <c r="D13" s="1">
         <v>0.66</v>
       </c>
       <c r="E13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="I13" s="1">
         <v>0.51</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.5</v>
       </c>
       <c r="J13" s="1">
         <v>619</v>
@@ -4061,10 +4037,10 @@
         <v>147</v>
       </c>
       <c r="L13" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M13" s="1">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="N13" s="1">
         <v>616</v>
@@ -4073,27 +4049,27 @@
         <v>147</v>
       </c>
       <c r="P13" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="1">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1">
-        <v>1.1200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1">
-        <v>-0.14000000000000001</v>
+        <v>-0.15</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AA13" s="1"/>
     </row>
@@ -4102,28 +4078,28 @@
         <v>76</v>
       </c>
       <c r="B14" s="1">
-        <v>1.1200000000000001</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>149.1</v>
+        <v>106.3</v>
       </c>
       <c r="D14" s="1">
         <v>0.65</v>
       </c>
       <c r="E14" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="1">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="G14" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H14" s="1">
         <v>0.42</v>
       </c>
       <c r="I14" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J14" s="1">
         <v>624</v>
@@ -4138,7 +4114,7 @@
         <v>1193</v>
       </c>
       <c r="N14" s="1">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O14" s="1">
         <v>148</v>
@@ -4147,19 +4123,19 @@
         <v>423</v>
       </c>
       <c r="Q14" s="1">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="R14" s="1">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="W14" s="1">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -4173,19 +4149,19 @@
         <v>77</v>
       </c>
       <c r="B15" s="1">
-        <v>1.03</v>
+        <v>2.3460000000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>98.9</v>
+        <v>50.2</v>
       </c>
       <c r="D15" s="1">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="E15" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="F15" s="1">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="G15" s="1">
         <v>0.51</v>
@@ -4223,20 +4199,20 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1">
-        <v>-0.15</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1">
-        <v>0.23</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -4244,31 +4220,31 @@
         <v>78</v>
       </c>
       <c r="B16" s="1">
-        <v>1.0589999999999999</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>118.7</v>
+        <v>109.3</v>
       </c>
       <c r="D16" s="1">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="E16" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F16" s="1">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="G16" s="1">
         <v>0.5</v>
       </c>
       <c r="H16" s="1">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="I16" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="1">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K16" s="1">
         <v>146</v>
@@ -4277,37 +4253,37 @@
         <v>436</v>
       </c>
       <c r="M16" s="1">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="N16" s="1">
         <v>614</v>
       </c>
       <c r="O16" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P16" s="1">
         <v>436</v>
       </c>
       <c r="Q16" s="1">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -4315,28 +4291,28 @@
         <v>79</v>
       </c>
       <c r="B17" s="1">
-        <v>1.0589999999999999</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>70.5</v>
+        <v>58.1</v>
       </c>
       <c r="D17" s="1">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E17" s="1">
         <v>0.5</v>
       </c>
       <c r="F17" s="1">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G17" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="I17" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J17" s="1">
         <v>624</v>
@@ -4345,40 +4321,40 @@
         <v>147</v>
       </c>
       <c r="L17" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M17" s="1">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="N17" s="1">
         <v>622</v>
       </c>
       <c r="O17" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P17" s="1">
         <v>440</v>
       </c>
       <c r="Q17" s="1">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="V17" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -4386,22 +4362,22 @@
         <v>80</v>
       </c>
       <c r="B18" s="1">
-        <v>1.0109999999999999</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>111.1</v>
+        <v>97.3</v>
       </c>
       <c r="D18" s="1">
         <v>0.64</v>
       </c>
       <c r="E18" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="1">
         <v>0.41</v>
       </c>
       <c r="G18" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H18" s="1">
         <v>0.42</v>
@@ -4434,24 +4410,24 @@
         <v>1184</v>
       </c>
       <c r="R18" s="1">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="S18" s="1">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="T18" s="1">
-        <v>-1.05</v>
+        <v>-0.93</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="X18" s="1">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -4461,28 +4437,28 @@
         <v>81</v>
       </c>
       <c r="B19" s="1">
-        <v>1.139</v>
+        <v>1.133</v>
       </c>
       <c r="C19" s="1">
-        <v>116.5</v>
+        <v>137</v>
       </c>
       <c r="D19" s="1">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="E19" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F19" s="1">
         <v>0.42</v>
       </c>
       <c r="G19" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H19" s="1">
         <v>0.44</v>
       </c>
       <c r="I19" s="1">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="J19" s="1">
         <v>627</v>
@@ -4491,32 +4467,32 @@
         <v>148</v>
       </c>
       <c r="L19" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M19" s="1">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="N19" s="1">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O19" s="1">
         <v>148</v>
       </c>
       <c r="P19" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="1">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="R19" s="1">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1">
-        <v>-0.98</v>
+        <v>-0.94</v>
       </c>
       <c r="U19" s="1">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1">
@@ -4527,7 +4503,7 @@
         <v>0.52</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AA19" s="1"/>
     </row>
@@ -4536,10 +4512,10 @@
         <v>82</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0740000000000001</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D20" s="1">
         <v>0.64</v>
@@ -4557,19 +4533,19 @@
         <v>0.4</v>
       </c>
       <c r="I20" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="J20" s="1">
         <v>626</v>
       </c>
       <c r="K20" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L20" s="1">
         <v>420</v>
       </c>
       <c r="M20" s="1">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="N20" s="1">
         <v>622</v>
@@ -4578,31 +4554,31 @@
         <v>147</v>
       </c>
       <c r="P20" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="1">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="R20" s="1">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="S20" s="1">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="X20" s="1">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AA20" s="1"/>
     </row>
@@ -4611,19 +4587,19 @@
         <v>83</v>
       </c>
       <c r="B21" s="1">
-        <v>1.0760000000000001</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>97.2</v>
+        <v>92.2</v>
       </c>
       <c r="D21" s="1">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E21" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F21" s="1">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="G21" s="1">
         <v>0.51</v>
@@ -4632,7 +4608,7 @@
         <v>0.34</v>
       </c>
       <c r="I21" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J21" s="1">
         <v>620</v>
@@ -4641,43 +4617,43 @@
         <v>147</v>
       </c>
       <c r="L21" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M21" s="1">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="N21" s="1">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O21" s="1">
         <v>147</v>
       </c>
       <c r="P21" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q21" s="1">
         <v>1201</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="T21" s="1">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="U21" s="1">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="Y21" s="1">
         <v>0.32</v>
       </c>
       <c r="Z21" s="1">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AA21" s="1"/>
     </row>
@@ -4686,28 +4662,28 @@
         <v>84</v>
       </c>
       <c r="B22" s="1">
-        <v>1.0780000000000001</v>
+        <v>1.226</v>
       </c>
       <c r="C22" s="1">
-        <v>100</v>
+        <v>115.9</v>
       </c>
       <c r="D22" s="1">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E22" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F22" s="1">
         <v>0.41</v>
       </c>
       <c r="G22" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H22" s="1">
         <v>0.45</v>
       </c>
       <c r="I22" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J22" s="1">
         <v>623</v>
@@ -4716,40 +4692,40 @@
         <v>149</v>
       </c>
       <c r="L22" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M22" s="1">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="N22" s="1">
         <v>620</v>
       </c>
       <c r="O22" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="1">
         <v>415</v>
       </c>
       <c r="Q22" s="1">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="R22" s="1">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1">
-        <v>-0.96</v>
+        <v>-0.97</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="W22" s="1">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1">
@@ -4761,16 +4737,16 @@
         <v>85</v>
       </c>
       <c r="B23" s="1">
-        <v>1.0369999999999999</v>
+        <v>1.194</v>
       </c>
       <c r="C23" s="1">
-        <v>123.9</v>
+        <v>115.4</v>
       </c>
       <c r="D23" s="1">
         <v>0.64</v>
       </c>
       <c r="E23" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F23" s="1">
         <v>0.43</v>
@@ -4782,7 +4758,7 @@
         <v>0.4</v>
       </c>
       <c r="I23" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J23" s="1">
         <v>622</v>
@@ -4809,26 +4785,26 @@
         <v>1189</v>
       </c>
       <c r="R23" s="1">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="S23" s="1">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="W23" s="1">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="X23" s="1">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
@@ -4836,28 +4812,28 @@
         <v>86</v>
       </c>
       <c r="B24" s="1">
-        <v>1.1060000000000001</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>96.4</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D24" s="1">
         <v>0.66</v>
       </c>
       <c r="E24" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="1">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="G24" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H24" s="1">
         <v>0.34</v>
       </c>
       <c r="I24" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J24" s="1">
         <v>620</v>
@@ -4866,10 +4842,10 @@
         <v>147</v>
       </c>
       <c r="L24" s="1">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M24" s="1">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="N24" s="1">
         <v>616</v>
@@ -4878,17 +4854,17 @@
         <v>147</v>
       </c>
       <c r="P24" s="1">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q24" s="1">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="T24" s="1">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1">
@@ -4896,14 +4872,14 @@
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
@@ -4911,28 +4887,28 @@
         <v>87</v>
       </c>
       <c r="B25" s="1">
-        <v>1.028</v>
+        <v>1.129</v>
       </c>
       <c r="C25" s="1">
-        <v>141.4</v>
+        <v>118.1</v>
       </c>
       <c r="D25" s="1">
         <v>0.65</v>
       </c>
       <c r="E25" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F25" s="1">
         <v>0.44</v>
       </c>
       <c r="G25" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H25" s="1">
         <v>0.4</v>
       </c>
       <c r="I25" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J25" s="1">
         <v>627</v>
@@ -4947,30 +4923,30 @@
         <v>1193</v>
       </c>
       <c r="N25" s="1">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O25" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P25" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q25" s="1">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="R25" s="1">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="V25" s="1">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="W25" s="1">
-        <v>0.69</v>
+        <v>0.76</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -4986,28 +4962,28 @@
         <v>88</v>
       </c>
       <c r="B26" s="1">
-        <v>1.915</v>
+        <v>1.2070000000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>67.3</v>
+        <v>46.5</v>
       </c>
       <c r="D26" s="1">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="E26" s="1">
         <v>0.5</v>
       </c>
       <c r="F26" s="1">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G26" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H26" s="1">
         <v>0.32</v>
       </c>
       <c r="I26" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="J26" s="1">
         <v>624</v>
@@ -5028,32 +5004,32 @@
         <v>148</v>
       </c>
       <c r="P26" s="1">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q26" s="1">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="U26" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="V26" s="1">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="Z26" s="1">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -5061,13 +5037,13 @@
         <v>89</v>
       </c>
       <c r="B27" s="1">
-        <v>1.49</v>
+        <v>1.006</v>
       </c>
       <c r="C27" s="1">
-        <v>52</v>
+        <v>98.2</v>
       </c>
       <c r="D27" s="1">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E27" s="1">
         <v>0.5</v>
@@ -5079,10 +5055,10 @@
         <v>0.5</v>
       </c>
       <c r="H27" s="1">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I27" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J27" s="1">
         <v>619</v>
@@ -5100,35 +5076,35 @@
         <v>617</v>
       </c>
       <c r="O27" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P27" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q27" s="1">
         <v>1203</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="V27" s="1">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="AA27" s="1">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -5136,31 +5112,31 @@
         <v>90</v>
       </c>
       <c r="B28" s="1">
-        <v>1.167</v>
+        <v>1.111</v>
       </c>
       <c r="C28" s="1">
-        <v>81.5</v>
+        <v>115.9</v>
       </c>
       <c r="D28" s="1">
         <v>0.64</v>
       </c>
       <c r="E28" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F28" s="1">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="G28" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H28" s="1">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="I28" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J28" s="1">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K28" s="1">
         <v>148</v>
@@ -5169,13 +5145,13 @@
         <v>412</v>
       </c>
       <c r="M28" s="1">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="N28" s="1">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O28" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P28" s="1">
         <v>414</v>
@@ -5184,29 +5160,29 @@
         <v>1185</v>
       </c>
       <c r="R28" s="1">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="S28" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="T28" s="1">
-        <v>-1.01</v>
+        <v>-1</v>
       </c>
       <c r="U28" s="1">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1">
-        <v>1.1399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="X28" s="1">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="Y28" s="1">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z28" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="AA28" s="1"/>
     </row>
@@ -5215,28 +5191,28 @@
         <v>91</v>
       </c>
       <c r="B29" s="1">
-        <v>1.0589999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C29" s="1">
-        <v>120.8</v>
+        <v>109</v>
       </c>
       <c r="D29" s="1">
         <v>0.64</v>
       </c>
       <c r="E29" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="1">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="G29" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="1">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="I29" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J29" s="1">
         <v>623</v>
@@ -5257,36 +5233,36 @@
         <v>148</v>
       </c>
       <c r="P29" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q29" s="1">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="R29" s="1">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="S29" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="T29" s="1">
-        <v>-1</v>
+        <v>-0.96</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1">
         <v>0.13</v>
       </c>
       <c r="W29" s="1">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="X29" s="1">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="Y29" s="1">
-        <v>0.54</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -5294,10 +5270,10 @@
         <v>92</v>
       </c>
       <c r="B30" s="1">
-        <v>1.1100000000000001</v>
+        <v>1.093</v>
       </c>
       <c r="C30" s="1">
-        <v>126.8</v>
+        <v>148.9</v>
       </c>
       <c r="D30" s="1">
         <v>0.64</v>
@@ -5306,16 +5282,16 @@
         <v>0.5</v>
       </c>
       <c r="F30" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="1">
         <v>0.42</v>
       </c>
-      <c r="G30" s="1">
+      <c r="I30" s="1">
         <v>0.51</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.5</v>
       </c>
       <c r="J30" s="1">
         <v>627</v>
@@ -5330,39 +5306,39 @@
         <v>1186</v>
       </c>
       <c r="N30" s="1">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O30" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P30" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q30" s="1">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="R30" s="1">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1">
-        <v>-1</v>
+        <v>-0.95</v>
       </c>
       <c r="U30" s="1">
         <v>0.3</v>
       </c>
       <c r="V30" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="W30" s="1">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="X30" s="1"/>
       <c r="Y30" s="1">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="Z30" s="1">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AA30" s="1">
         <v>0.28000000000000003</v>
@@ -5373,25 +5349,25 @@
         <v>93</v>
       </c>
       <c r="B31" s="1">
-        <v>1.0549999999999999</v>
+        <v>1.105</v>
       </c>
       <c r="C31" s="1">
-        <v>72.5</v>
+        <v>118.1</v>
       </c>
       <c r="D31" s="1">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E31" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F31" s="1">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="G31" s="1">
         <v>0.51</v>
       </c>
       <c r="H31" s="1">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="I31" s="1">
         <v>0.5</v>
@@ -5403,13 +5379,13 @@
         <v>147</v>
       </c>
       <c r="L31" s="1">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M31" s="1">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="N31" s="1">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O31" s="1">
         <v>147</v>
@@ -5418,33 +5394,33 @@
         <v>424</v>
       </c>
       <c r="Q31" s="1">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="R31" s="1">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S31" s="1">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="V31" s="1">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="W31" s="1">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="X31" s="1">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="AA31" s="1">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -5452,25 +5428,25 @@
         <v>94</v>
       </c>
       <c r="B32" s="1">
-        <v>1.1140000000000001</v>
+        <v>1.095</v>
       </c>
       <c r="C32" s="1">
-        <v>72.2</v>
+        <v>67.5</v>
       </c>
       <c r="D32" s="1">
         <v>0.66</v>
       </c>
       <c r="E32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="G32" s="1">
         <v>0.51</v>
       </c>
-      <c r="F32" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.5</v>
-      </c>
       <c r="H32" s="1">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="I32" s="1">
         <v>0.5</v>
@@ -5488,7 +5464,7 @@
         <v>1204</v>
       </c>
       <c r="N32" s="1">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O32" s="1">
         <v>147</v>
@@ -5497,33 +5473,33 @@
         <v>439</v>
       </c>
       <c r="Q32" s="1">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="T32" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="U32" s="1">
-        <v>-0.15</v>
+        <v>-0.11</v>
       </c>
       <c r="V32" s="1">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="W32" s="1"/>
       <c r="X32" s="1">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="Y32" s="1">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -5531,28 +5507,28 @@
         <v>95</v>
       </c>
       <c r="B33" s="1">
-        <v>1.0669999999999999</v>
+        <v>1.099</v>
       </c>
       <c r="C33" s="1">
-        <v>103.8</v>
+        <v>144.5</v>
       </c>
       <c r="D33" s="1">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E33" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F33" s="1">
         <v>0.42</v>
       </c>
       <c r="G33" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H33" s="1">
         <v>0.42</v>
       </c>
       <c r="I33" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="J33" s="1">
         <v>627</v>
@@ -5561,49 +5537,49 @@
         <v>148</v>
       </c>
       <c r="L33" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M33" s="1">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="N33" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O33" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P33" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q33" s="1">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="R33" s="1">
-        <v>3.23</v>
+        <v>3.1</v>
       </c>
       <c r="S33" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="T33" s="1">
+        <v>-1.01</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="W33" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z33" s="1">
         <v>0.28999999999999998</v>
-      </c>
-      <c r="T33" s="1">
-        <v>-1.05</v>
-      </c>
-      <c r="U33" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="V33" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="W33" s="1">
-        <v>1.08</v>
-      </c>
-      <c r="X33" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>0.32</v>
       </c>
       <c r="AA33" s="1">
         <v>0.28999999999999998</v>
@@ -5656,7 +5632,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="15">
-      <formula>J2&lt;622</formula>
+      <formula>J2&lt;620</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K33">
@@ -5669,7 +5645,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="13">
-      <formula>K2&lt;151</formula>
+      <formula>K2&lt;149</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L33">
@@ -5682,7 +5658,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="11">
-      <formula>L2&lt;414</formula>
+      <formula>L2&lt;413</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M33">
@@ -5695,7 +5671,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="9">
-      <formula>M2&lt;1189</formula>
+      <formula>M2&lt;1187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N33">
@@ -5708,7 +5684,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="7">
-      <formula>N2&lt;619</formula>
+      <formula>N2&lt;617</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O33">
@@ -5721,7 +5697,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="5">
-      <formula>O2&lt;151</formula>
+      <formula>O2&lt;150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P33">
@@ -5734,7 +5710,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>P2&lt;415</formula>
+      <formula>P2&lt;414</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q33">
@@ -5747,7 +5723,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>Q2&lt;1186</formula>
+      <formula>Q2&lt;1185</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
